--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Wnt2-Fzd9.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Wnt2-Fzd9.xlsx
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.62918</v>
+        <v>0.939124</v>
       </c>
       <c r="N2">
-        <v>1.88754</v>
+        <v>2.817372</v>
       </c>
       <c r="O2">
-        <v>0.3590181352146817</v>
+        <v>0.4188652080327055</v>
       </c>
       <c r="P2">
-        <v>0.3590181352146816</v>
+        <v>0.4188652080327054</v>
       </c>
       <c r="Q2">
-        <v>0.03462901856666666</v>
+        <v>0.05168781975333333</v>
       </c>
       <c r="R2">
-        <v>0.3116611671</v>
+        <v>0.46519037778</v>
       </c>
       <c r="S2">
-        <v>0.3590181352146817</v>
+        <v>0.4188652080327055</v>
       </c>
       <c r="T2">
-        <v>0.3590181352146816</v>
+        <v>0.4188652080327054</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,10 +626,10 @@
         <v>2.131106</v>
       </c>
       <c r="O3">
-        <v>0.4053454242372715</v>
+        <v>0.3168364554023206</v>
       </c>
       <c r="P3">
-        <v>0.4053454242372714</v>
+        <v>0.3168364554023206</v>
       </c>
       <c r="Q3">
         <v>0.03909750746555556</v>
@@ -638,10 +638,10 @@
         <v>0.35187756719</v>
       </c>
       <c r="S3">
-        <v>0.4053454242372715</v>
+        <v>0.3168364554023206</v>
       </c>
       <c r="T3">
-        <v>0.4053454242372714</v>
+        <v>0.3168364554023206</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1859953333333333</v>
+        <v>0.2295973333333333</v>
       </c>
       <c r="N4">
-        <v>0.5579859999999999</v>
+        <v>0.6887920000000001</v>
       </c>
       <c r="O4">
-        <v>0.1061313101687378</v>
+        <v>0.102404298889626</v>
       </c>
       <c r="P4">
-        <v>0.1061313101687378</v>
+        <v>0.102404298889626</v>
       </c>
       <c r="Q4">
-        <v>0.01023687315444444</v>
+        <v>0.01263665456444444</v>
       </c>
       <c r="R4">
-        <v>0.09213185838999999</v>
+        <v>0.11372989108</v>
       </c>
       <c r="S4">
-        <v>0.1061313101687378</v>
+        <v>0.102404298889626</v>
       </c>
       <c r="T4">
-        <v>0.1061313101687378</v>
+        <v>0.102404298889626</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1270186666666667</v>
+        <v>0.2429623333333333</v>
       </c>
       <c r="N5">
-        <v>0.3810560000000001</v>
+        <v>0.728887</v>
       </c>
       <c r="O5">
-        <v>0.07247847173165378</v>
+        <v>0.1083653152254422</v>
       </c>
       <c r="P5">
-        <v>0.07247847173165377</v>
+        <v>0.1083653152254422</v>
       </c>
       <c r="Q5">
-        <v>0.006990895715555557</v>
+        <v>0.01337224188944444</v>
       </c>
       <c r="R5">
-        <v>0.06291806144000002</v>
+        <v>0.120350177005</v>
       </c>
       <c r="S5">
-        <v>0.07247847173165378</v>
+        <v>0.1083653152254422</v>
       </c>
       <c r="T5">
-        <v>0.07247847173165377</v>
+        <v>0.1083653152254422</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.09993933333333334</v>
+        <v>0.120015</v>
       </c>
       <c r="N6">
-        <v>0.299818</v>
+        <v>0.3600450000000001</v>
       </c>
       <c r="O6">
-        <v>0.05702665864765538</v>
+        <v>0.05352872244990561</v>
       </c>
       <c r="P6">
-        <v>0.05702665864765537</v>
+        <v>0.05352872244990561</v>
       </c>
       <c r="Q6">
-        <v>0.005500494341111111</v>
+        <v>0.006605425575000001</v>
       </c>
       <c r="R6">
-        <v>0.04950444907000001</v>
+        <v>0.05944883017500002</v>
       </c>
       <c r="S6">
-        <v>0.05702665864765538</v>
+        <v>0.05352872244990561</v>
       </c>
       <c r="T6">
-        <v>0.05702665864765537</v>
+        <v>0.05352872244990561</v>
       </c>
     </row>
   </sheetData>
